--- a/Data/uber-trips-nyc.xlsx
+++ b/Data/uber-trips-nyc.xlsx
@@ -381,15 +381,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D355"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A341" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.25">

--- a/Data/uber-trips-nyc.xlsx
+++ b/Data/uber-trips-nyc.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,6 +114,3006 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>trips</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$355</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="354"/>
+                <c:pt idx="0">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>225.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3427.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>945.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1228.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>870.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>785.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1137.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>890.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>196.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3147.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>201.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1188.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>818.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>915.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3215.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>147.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>812.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>746.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>183.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1088.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2862.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>194.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>951.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1218.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3387.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>907.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>227.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3473.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1022.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1336.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>234.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>218.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>933.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1363.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1039.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3603.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>248.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>217.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>974.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>262.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1070.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>238.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1135.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3831.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1463.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1455.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>224.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3820.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1140.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1070.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>280.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1057.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1331.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>949.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>206.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3558.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>245.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>220.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>832.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>943.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3186.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1228.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>162.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3499.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>279.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>217.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>964.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1082.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1323.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>258.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>975.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1342.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>234.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3658.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1092.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3736.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>271.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1030.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>233.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1405.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1174.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>237.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1208.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1457.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>270.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3840.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1068.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1445.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>290.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3975.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1250.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>234.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1079.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>974.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>201.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1137.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>252.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1306.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3657.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>177.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>869.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>248.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3290.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1056.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1223.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>883.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>992.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>238.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2958.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>168.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>706.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>944.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1151.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>221.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3654.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>272.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1350.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3718.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>242.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1228.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1035.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>296.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1429.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1471.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3889.0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>246.0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1071.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1295.0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>295.0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1093.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>246.0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>299.0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4040.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1482.0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1330.0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>945.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3652.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>211.0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1367.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1223.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>245.0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>183.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3300.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>226.0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>829.0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1046.0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1203.0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1150.0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>860.0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>230.0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3012.0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1084.0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>197.0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>596.0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>434.0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1619.0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3692.0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1235.0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>286.0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1356.0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1011.0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>235.0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1474.0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3959.0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1316.0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>295.0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1082.0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1501.0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1384.0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>4124.0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>322.0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1106.0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>309.0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>225.0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1394.0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1321.0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3947.0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1027.0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>961.0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1214.0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>193.0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>289.0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1355.0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3740.0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1217.0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1152.0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>275.0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>939.0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3270.0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>227.0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>299.0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>991.0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>3674.0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1350.0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1269.0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>3856.0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>309.0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>244.0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1311.0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1393.0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1072.0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1524.0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1418.0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1179.0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>264.0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>355.0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>4093.0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1526.0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>385.0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1181.0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>261.0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>4170.0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1414.0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1031.0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>211.0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1383.0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>3849.0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>345.0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>3422.0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>313.0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>923.0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1256.0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1136.0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1312.0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1241.0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>976.0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>3543.0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>228.0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>388.0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>3700.0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>233.0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1364.0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>422.0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1281.0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1029.0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1450.0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>3849.0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>255.0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1115.0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>450.0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1396.0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1532.0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>269.0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1468.0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>536.0</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1181.0</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>4137.0</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1590.0</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1523.0</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>4395.0</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>599.0</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>281.0</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1216.0</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>4129.0</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>236.0</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1111.0</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>583.0</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1486.0</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1428.0</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1261.0</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>3651.0</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1293.0</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>521.0</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>210.0</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1003.0</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>934.0</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>207.0</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>1214.0</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>3524.0</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1164.0</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>508.0</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>3826.0</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>241.0</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1314.0</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1378.0</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1066.0</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>578.0</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>1078.0</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1314.0</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>1394.0</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>586.0</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>3842.0</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>228.0</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1127.0</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1428.0</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>4110.0</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>663.0</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1452.0</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>4384.0</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1574.0</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1186.0</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1497.0</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>736.0</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>272.0</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1044.0</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1374.0</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>685.0</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1443.0</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>238.0</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>3981.0</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>199.0</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1248.0</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>1220.0</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>3478.0</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>909.0</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>566.0</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>966.0</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>1332.0</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>3734.0</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>1262.0</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>665.0</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>238.0</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>3965.0</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>247.0</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>1061.0</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>1346.0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>1456.0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>698.0</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>246.0</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>1076.0</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>706.0</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>1395.0</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>1473.0</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>3934.0</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>1134.0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>1539.0</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>1465.0</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>243.0</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>745.0</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>4101.0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>786.0</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>1551.0</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>1114.0</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>272.0</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>4253.0</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>1510.0</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>994.0</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>3952.0</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>1372.0</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>1386.0</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>230.0</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>747.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$355</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="354"/>
+                <c:pt idx="0">
+                  <c:v>1132.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1765.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29421.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7679.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9537.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6903.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4768.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7065.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>875.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5506.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1001.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19974.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1526.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10664.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7432.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8010.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1088.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29729.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>791.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5621.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5223.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>993.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7729.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20441.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>984.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6012.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7899.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20926.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5798.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1133.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25301.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7491.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10128.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1376.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1314.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6816.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11528.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9078.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29949.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1704.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1446.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8397.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1911.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10050.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1772.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10416.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>33802.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>13462.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13165.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1560.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>33517.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10477.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9538.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2039.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11629.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13856.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10287.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1646.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>38864.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2202.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1672.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7176.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8461.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27681.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10932.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1104.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>26852.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1711.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1399.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7915.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9107.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>10662.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1697.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8713.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>11825.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1652.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>29983.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9629.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>29550.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8870.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1582.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>11965.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9762.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1636.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10391.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>12539.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1797.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>31214.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9152.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>12977.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2082.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>34822.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>11280.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1481.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9838.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9546.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1281.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>11382.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2160.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>12676.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>36318.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1521.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>9443.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2287.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>35182.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>11161.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>12879.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>7028.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7775.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1568.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>22750.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1025.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5609.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>7206.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>8496.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1310.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>26137.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1608.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>10015.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>27344.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1519.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>9472.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>8041.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1774.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>10997.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>12143.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>30091.0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1551.0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>9080.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>10699.0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2038.0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>9343.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1670.0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2162.0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>33756.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>13121.0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>11767.0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>10040.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>39187.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1608.0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>14143.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>13355.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2376.0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1190.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>28066.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1755.0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7219.0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>9303.0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>10362.0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7608.0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>5919.0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1363.0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>19940.0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>7565.0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>4414.0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>921.0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>4325.0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2957.0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>629.0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>11998.0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>28137.0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>10025.0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1913.0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>10862.0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>8071.0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1438.0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>12600.0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>31637.0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>11485.0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2086.0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1687.0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>9499.0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2016.0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>14793.0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>13852.0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>39110.0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2785.0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>11167.0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3282.0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1892.0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>15756.0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>15388.0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44297.0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>11642.0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>9499.0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>12436.0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1377.0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2672.0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>13458.0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>37468.0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>12216.0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>11981.0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2607.0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>9511.0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>30761.0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1904.0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2410.0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>9602.0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1915.0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>31641.0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>12665.0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>11955.0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>29994.0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2334.0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1639.0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>11309.0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>11959.0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>9600.0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>14499.0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>13782.0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>11609.0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2022.0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>3011.0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>35990.0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>15417.0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3569.0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>11897.0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>38693.0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>14375.0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>10512.0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1504.0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>13688.0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>13450.0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>38530.0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>3473.0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>29692.0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2623.0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>8129.0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>11004.0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>10356.0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1196.0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>10887.0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>10209.0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>8135.0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>28266.0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1565.0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2894.0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>29124.0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1555.0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>11401.0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>3432.0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>10536.0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>8718.0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>12749.0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>31889.0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1831.0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>10034.0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>3778.0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>12189.0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>14263.0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2092.0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>13786.0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>4609.0</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>11640.0</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>36844.0</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>16996.0</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>16088.0</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>43561.0</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>5909.0</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2408.0</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>13062.0</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>45858.0</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2055.0</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>12678.0</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>6307.0</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>16999.0</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>16448.0</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>14517.0</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>41209.0</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>14662.0</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>5500.0</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>11517.0</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>9052.0</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1576.0</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>11824.0</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>33448.0</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>11323.0</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>4875.0</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>32473.0</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>1797.0</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>11887.0</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>12524.0</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>9463.0</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>4907.0</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>9538.0</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>11724.0</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>12016.0</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>5059.0</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>32317.0</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1589.0</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>11739.0</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2120.0</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>14591.0</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>39110.0</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>6447.0</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>14750.0</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>44755.0</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>16856.0</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>12758.0</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>16342.0</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>7824.0</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2380.0</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>12132.0</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>16149.0</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>7658.0</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>16098.0</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>2149.0</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>44194.0</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1312.0</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>10696.0</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>10970.0</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>30157.0</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>8271.0</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>5034.0</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>8943.0</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>11720.0</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>31173.0</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>11714.0</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>5823.0</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>1844.0</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>34686.0</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>1869.0</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>9954.0</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>12497.0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>13719.0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>6390.0</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>1647.0</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>9405.0</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>6178.0</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>12693.0</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>12811.0</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>31957.0</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>10661.0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>14461.0</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>13814.0</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>1797.0</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>6744.0</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>36091.0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>7563.0</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>14677.0</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>10755.0</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>2056.0</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>38780.0</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>14975.0</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>10319.0</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>39812.0</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>14022.0</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>14472.0</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>1803.0</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>7753.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2070912432"/>
+        <c:axId val="-2070914752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2070912432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2070914752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2070914752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2070912432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>330</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>352</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,8 +3381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D355"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A341" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="N340" sqref="N340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5365,5 +8365,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>